--- a/Database.xlsx
+++ b/Database.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>userType</t>
-  </si>
-  <si>
-    <t>registedUsers</t>
-  </si>
-  <si>
-    <t>guests</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>passwd</t>
   </si>
   <si>
@@ -77,12 +65,6 @@
     <t>dislikes</t>
   </si>
   <si>
-    <t>uesrTypeID</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -95,17 +77,58 @@
     <t>tag</t>
   </si>
   <si>
-    <t>photo</t>
+    <t>time&amp;date</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Haien</t>
+  </si>
+  <si>
+    <t>Tang</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>haien@abc.com</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>registeredUsers</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>12345@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,12 +231,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -223,6 +246,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,12 +258,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,12 +268,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,290 +586,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3:AA31"/>
+  <dimension ref="H3:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W4" s="19" t="s">
+    <row r="3" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="7"/>
+    </row>
+    <row r="5" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="Y6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="7" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="M5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="2"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I6" s="14" t="s">
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="7">
+        <v>12345</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="Q11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="V13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="V14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="4"/>
-      <c r="W6" s="3" t="s">
+      <c r="W14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="8:29" x14ac:dyDescent="0.25">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="20" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="4"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="S26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="M7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="S28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="5">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="12" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="T13" s="11" t="s">
+      <c r="Y28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T15" s="5"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="6"/>
-    </row>
-    <row r="20" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J24" s="3"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="16"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R28" s="8" t="s">
+      <c r="AA28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="Q29" s="3"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="Q30" s="3"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="10:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q31" s="5"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="6"/>
+    </row>
+    <row r="29" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="S29" s="2"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="S30" s="2"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="4"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="Q26:V27"/>
+  <mergeCells count="5">
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="S26:X27"/>
     <mergeCell ref="J21:L22"/>
-    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="N5:S6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="Q9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidStudioProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidStudioProjects\NewsClient5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,12 +62,6 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>dislikes</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>userID</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>12345@gmail.com</t>
+  </si>
+  <si>
+    <t>useID</t>
+  </si>
+  <si>
+    <t>likeNr</t>
   </si>
 </sst>
 </file>
@@ -246,10 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,9 +270,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,369 +594,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H3:AC31"/>
+  <dimension ref="I3:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="19" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="22" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y4" s="10" t="s">
+    <row r="3" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="16"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="7">
+        <v>12345</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="T11" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="AA12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="10"/>
+    </row>
+    <row r="13" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="AA13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="Y6" s="2" t="s">
+      <c r="AE13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="7"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="9:32" x14ac:dyDescent="0.25">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="13:31" x14ac:dyDescent="0.25">
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="3"/>
+      <c r="AC18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="22"/>
+    </row>
+    <row r="19" spans="13:31" x14ac:dyDescent="0.25">
+      <c r="R19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="S19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="V19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="7"/>
-    </row>
-    <row r="7" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="X19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="3"/>
+      <c r="AC19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="7">
-        <v>12345</v>
-      </c>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="4">
-        <v>3</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="Q11" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="V13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="V14" s="2" t="s">
+      <c r="AE19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="2"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="3"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="3"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="13:31" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="20" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="J21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="J23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="J24" s="2"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="4"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="S26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="S27" s="17"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="S28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="S29" s="2"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="10:27" x14ac:dyDescent="0.25">
-      <c r="S30" s="2"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S31" s="4"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="5"/>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="13:31" x14ac:dyDescent="0.25">
+      <c r="M24" s="2"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="4"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="S26:X27"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="R17:W18"/>
+    <mergeCell ref="M21:O22"/>
+    <mergeCell ref="Q5:V6"/>
+    <mergeCell ref="AC18:AE18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
-    <hyperlink ref="Q9" r:id="rId2"/>
+    <hyperlink ref="T8" r:id="rId1"/>
+    <hyperlink ref="T9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>passwd</t>
   </si>
@@ -35,9 +32,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -50,30 +44,15 @@
     <t>likes</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>categoryID</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
-    <t>categoryName</t>
-  </si>
-  <si>
     <t>userID</t>
   </si>
   <si>
     <t>newsID</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>time&amp;date</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -89,15 +68,6 @@
     <t>haien@abc.com</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>registeredUsers</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
@@ -110,14 +80,56 @@
     <t>useID</t>
   </si>
   <si>
-    <t>likeNr</t>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>type1 for registered users, type 2 for guest</t>
+  </si>
+  <si>
+    <t>email must be unique</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>commentsID</t>
+  </si>
+  <si>
+    <t>likesID</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -278,6 +297,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3:AF25"/>
+  <dimension ref="I3:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="Q5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +629,8 @@
     <col min="17" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="9:32" x14ac:dyDescent="0.25">
@@ -623,7 +648,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -657,21 +682,23 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
     </row>
@@ -686,18 +713,20 @@
         <v>1</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
     </row>
@@ -712,18 +741,20 @@
         <v>2</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="7">
+        <v>11</v>
+      </c>
+      <c r="T9" s="7">
         <v>12345</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="U9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
     </row>
@@ -738,27 +769,27 @@
         <v>3</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="V10" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="9:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="T11" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="9:32" x14ac:dyDescent="0.25">
       <c r="K12" s="12"/>
@@ -767,11 +798,18 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="Q12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
       <c r="AA12" s="14" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
@@ -782,23 +820,28 @@
     <row r="13" spans="9:32" x14ac:dyDescent="0.25">
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="AA13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AD13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>12</v>
+      <c r="AE13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AF13" s="7"/>
     </row>
@@ -832,9 +875,9 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R17" s="14" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
@@ -845,7 +888,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="13:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:31" x14ac:dyDescent="0.25">
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
@@ -856,125 +899,166 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="3"/>
       <c r="AC18" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="21"/>
       <c r="AE18" s="22"/>
     </row>
-    <row r="19" spans="13:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="R19" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="X19" s="7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="3"/>
       <c r="AC19" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
       <c r="R20" s="2"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="V20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>5</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="3"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
+    <row r="21" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="7"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="7"/>
       <c r="R21" s="2"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="V21" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7">
+        <v>2</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="3"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M22" s="17"/>
+    <row r="22" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="7"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="7"/>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="13:31" x14ac:dyDescent="0.25">
-      <c r="M23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="13:31" x14ac:dyDescent="0.25">
-      <c r="M24" s="2"/>
+    <row r="23" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="13:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M25" s="4"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="5"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="AA12:AE12"/>
     <mergeCell ref="R17:W18"/>
     <mergeCell ref="M21:O22"/>
     <mergeCell ref="Q5:V6"/>
     <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T8" r:id="rId1"/>
-    <hyperlink ref="T9" r:id="rId2"/>
+    <hyperlink ref="U8" r:id="rId1"/>
+    <hyperlink ref="U9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidStudioProjects\NewsClient5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidStudioProjects\NewsClient6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>passwd</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>photoID</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>photoName</t>
+  </si>
+  <si>
+    <t>photoPosition</t>
+  </si>
+  <si>
+    <t>photoURL</t>
   </si>
 </sst>
 </file>
@@ -271,6 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,7 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3:AF27"/>
+  <dimension ref="I3:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,14 +665,14 @@
     <row r="5" spans="9:32" x14ac:dyDescent="0.25">
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
     </row>
@@ -665,12 +683,12 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
     </row>
@@ -798,7 +816,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="R12" s="24" t="s">
@@ -808,19 +826,19 @@
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="17"/>
       <c r="AF12" s="10"/>
     </row>
     <row r="13" spans="9:32" x14ac:dyDescent="0.25">
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="24" t="s">
         <v>21</v>
       </c>
@@ -876,33 +894,33 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="3"/>
-      <c r="AC18" s="20" t="s">
+      <c r="AC18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
     </row>
     <row r="19" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L19" s="7"/>
@@ -968,9 +986,9 @@
     </row>
     <row r="21" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L21" s="7"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="7"/>
       <c r="R21" s="2"/>
       <c r="S21" s="7"/>
@@ -991,9 +1009,9 @@
     </row>
     <row r="22" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="7"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="7"/>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1016,7 +1034,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="12:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1029,6 +1047,14 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
+      <c r="R25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
     </row>
     <row r="26" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L26" s="7"/>
@@ -1036,6 +1062,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="20"/>
     </row>
     <row r="27" spans="12:31" x14ac:dyDescent="0.25">
       <c r="L27" s="7"/>
@@ -1043,9 +1075,52 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
+      <c r="R27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="12:31" x14ac:dyDescent="0.25">
+      <c r="R29" s="2"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="12:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="4"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="R25:W26"/>
     <mergeCell ref="AA12:AE12"/>
     <mergeCell ref="R17:W18"/>
     <mergeCell ref="M21:O22"/>
